--- a/AIC_All Areas X combined.xlsx
+++ b/AIC_All Areas X combined.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="40">
   <si>
     <t>model</t>
   </si>
@@ -118,13 +118,31 @@
   </si>
   <si>
     <t>Difference</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>D_SE</t>
+  </si>
+  <si>
+    <t>D_LCL</t>
+  </si>
+  <si>
+    <t>D_UCL</t>
+  </si>
+  <si>
+    <t>Combined model</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,21 +158,315 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Lucida Console"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -162,21 +474,212 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="43">
+    <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="32" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="36" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="40" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="21" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="25" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="29" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="33" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="37" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="41" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="26" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="30" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="34" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="38" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="42" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="23" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="27" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="31" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="35" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="17" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -475,10 +978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,51 +989,69 @@
     <col min="2" max="2" width="53.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -558,24 +1079,46 @@
       <c r="I2">
         <v>0.8952</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2">
+        <v>2481.75</v>
+      </c>
+      <c r="K2" s="1">
         <v>16.51014</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>1.963876</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>14.647857</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>23.725650000000002</v>
       </c>
-      <c r="N2" s="2">
-        <f>(J2-J6)/J6</f>
+      <c r="O2" s="2">
+        <f>(K2-K6)/K6</f>
         <v>0.15665744944833296</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P2">
+        <f>K2*100/J2</f>
+        <v>0.66526201269265639</v>
+      </c>
+      <c r="Q2">
+        <f>L2*100/J2</f>
+        <v>7.913270877405057E-2</v>
+      </c>
+      <c r="R2">
+        <f>M2*100/J2</f>
+        <v>0.59022290722272586</v>
+      </c>
+      <c r="S2">
+        <f>N2*100/J2</f>
+        <v>0.95600483529767299</v>
+      </c>
+      <c r="U2">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -600,9 +1143,12 @@
       <c r="I3">
         <v>5.4899999999999997E-2</v>
       </c>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>2481.75</v>
+      </c>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -627,9 +1173,12 @@
       <c r="I4">
         <v>4.99E-2</v>
       </c>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>2481.75</v>
+      </c>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -654,9 +1203,12 @@
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>2481.75</v>
+      </c>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>13</v>
       </c>
@@ -681,21 +1233,40 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6">
+        <v>2481.75</v>
+      </c>
+      <c r="K6" s="1">
         <v>14.274010000000001</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>0.54757540000000005</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>14.022821</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>17.28999</v>
       </c>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6" s="2"/>
+      <c r="P6">
+        <f>K6*100/J6</f>
+        <v>0.5751590611463685</v>
+      </c>
+      <c r="Q6">
+        <f>L6*100/J6</f>
+        <v>2.2064083811826334E-2</v>
+      </c>
+      <c r="R6">
+        <f>M6*100/J6</f>
+        <v>0.56503761458648138</v>
+      </c>
+      <c r="S6">
+        <f>N6*100/J6</f>
+        <v>0.69668540344514962</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>14</v>
       </c>
@@ -720,9 +1291,12 @@
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>2481.75</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>15</v>
       </c>
@@ -747,9 +1321,12 @@
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>2481.75</v>
+      </c>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>16</v>
       </c>
@@ -774,9 +1351,12 @@
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>2481.75</v>
+      </c>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>17</v>
       </c>
@@ -801,9 +1381,12 @@
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>2481.75</v>
+      </c>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>18</v>
       </c>
@@ -828,9 +1411,12 @@
       <c r="I11">
         <v>0</v>
       </c>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>2481.75</v>
+      </c>
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>19</v>
       </c>
@@ -855,9 +1441,12 @@
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>2481.75</v>
+      </c>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>20</v>
       </c>
@@ -882,363 +1471,434 @@
       <c r="I13">
         <v>0</v>
       </c>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>2481.75</v>
+      </c>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14">
+      <c r="C14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="4">
         <v>6</v>
       </c>
-      <c r="E14">
-        <v>-137.03301563844201</v>
-      </c>
-      <c r="F14">
-        <v>286.06599999999997</v>
-      </c>
-      <c r="G14">
-        <v>296.56599999999997</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="J14" s="1">
-        <v>25.052710000000001</v>
-      </c>
-      <c r="K14">
-        <v>7.1685109999999996</v>
+      <c r="E14" s="4">
+        <v>-138.899604622308</v>
+      </c>
+      <c r="F14" s="4">
+        <v>289.79899999999998</v>
+      </c>
+      <c r="G14" s="4">
+        <v>300.29899999999998</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>2145.5</v>
+      </c>
+      <c r="K14" s="1">
+        <v>23.75</v>
       </c>
       <c r="L14">
-        <v>17.86093</v>
+        <v>6.34</v>
       </c>
       <c r="M14">
-        <v>50.323160000000001</v>
-      </c>
-      <c r="N14" s="2">
-        <f>(J14-J16)/J16</f>
-        <v>0.28034079445112808</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+        <v>17.45</v>
+      </c>
+      <c r="N14">
+        <v>46.26</v>
+      </c>
+      <c r="O14" s="2">
+        <f>(K14-K16)/K16</f>
+        <v>0.28239740820734344</v>
+      </c>
+      <c r="P14">
+        <f>K14*100/J14</f>
+        <v>1.1069680727103239</v>
+      </c>
+      <c r="Q14">
+        <f>L14*100/J14</f>
+        <v>0.2955022139361454</v>
+      </c>
+      <c r="R14">
+        <f>M14*100/J14</f>
+        <v>0.81333022605453276</v>
+      </c>
+      <c r="S14">
+        <f>N14*100/J14</f>
+        <v>2.1561407597296669</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="4">
+        <v>4</v>
+      </c>
+      <c r="E15" s="4">
+        <v>-151.16229661008501</v>
+      </c>
+      <c r="F15" s="4">
+        <v>310.32499999999999</v>
+      </c>
+      <c r="G15" s="4">
+        <v>314.32499999999999</v>
+      </c>
+      <c r="H15" s="4">
+        <v>14.026</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>2145.5</v>
+      </c>
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="4">
+        <v>5</v>
+      </c>
+      <c r="E16" s="4">
+        <v>-148.88105184731799</v>
+      </c>
+      <c r="F16" s="4">
+        <v>307.762</v>
+      </c>
+      <c r="G16" s="4">
+        <v>314.42899999999997</v>
+      </c>
+      <c r="H16" s="4">
+        <v>14.13</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>2145.5</v>
+      </c>
+      <c r="K16" s="1">
+        <v>18.52</v>
+      </c>
+      <c r="L16">
+        <v>2.48</v>
+      </c>
+      <c r="M16">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="N16">
+        <v>27.24</v>
+      </c>
+      <c r="O16" s="2"/>
+      <c r="P16">
+        <f>K16*100/J16</f>
+        <v>0.86320205080400836</v>
+      </c>
+      <c r="Q16">
+        <f>L16*100/J16</f>
+        <v>0.11559077138196225</v>
+      </c>
+      <c r="R16">
+        <f>M16*100/J16</f>
+        <v>0.74621300396178059</v>
+      </c>
+      <c r="S16">
+        <f>N16*100/J16</f>
+        <v>1.2696341179212305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15">
+      <c r="C17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="4">
+        <v>8</v>
+      </c>
+      <c r="E17" s="4">
+        <v>-137.21954582985899</v>
+      </c>
+      <c r="F17" s="4">
+        <v>290.43900000000002</v>
+      </c>
+      <c r="G17" s="4">
+        <v>314.43900000000002</v>
+      </c>
+      <c r="H17" s="4">
+        <v>14.14</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>2145.5</v>
+      </c>
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="4">
+        <v>3</v>
+      </c>
+      <c r="E18" s="4">
+        <v>-153.728879920525</v>
+      </c>
+      <c r="F18" s="4">
+        <v>313.45800000000003</v>
+      </c>
+      <c r="G18" s="4">
+        <v>315.64</v>
+      </c>
+      <c r="H18" s="4">
+        <v>15.340999999999999</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>2145.5</v>
+      </c>
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="4">
+        <v>4</v>
+      </c>
+      <c r="E19" s="4">
+        <v>-152.80685130826399</v>
+      </c>
+      <c r="F19" s="4">
+        <v>313.61399999999998</v>
+      </c>
+      <c r="G19" s="4">
+        <v>317.61399999999998</v>
+      </c>
+      <c r="H19" s="4">
+        <v>17.315000000000001</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>2145.5</v>
+      </c>
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="4">
+        <v>5</v>
+      </c>
+      <c r="E20" s="4">
+        <v>-151.13418493723401</v>
+      </c>
+      <c r="F20" s="4">
+        <v>312.26799999999997</v>
+      </c>
+      <c r="G20" s="4">
+        <v>318.935</v>
+      </c>
+      <c r="H20" s="4">
+        <v>18.635999999999999</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>2145.5</v>
+      </c>
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="4">
+        <v>6</v>
+      </c>
+      <c r="E21" s="4">
+        <v>-148.30662597397099</v>
+      </c>
+      <c r="F21" s="4">
+        <v>308.613</v>
+      </c>
+      <c r="G21" s="4">
+        <v>319.113</v>
+      </c>
+      <c r="H21" s="4">
+        <v>18.814</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>2145.5</v>
+      </c>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="4">
+        <v>5</v>
+      </c>
+      <c r="E22" s="4">
+        <v>-152.68550224644</v>
+      </c>
+      <c r="F22" s="4">
+        <v>315.37099999999998</v>
+      </c>
+      <c r="G22" s="4">
+        <v>322.03800000000001</v>
+      </c>
+      <c r="H22" s="4">
+        <v>21.739000000000001</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>2145.5</v>
+      </c>
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="4">
+        <v>5</v>
+      </c>
+      <c r="E23" s="4">
+        <v>-152.751441141648</v>
+      </c>
+      <c r="F23" s="4">
+        <v>315.50299999999999</v>
+      </c>
+      <c r="G23" s="4">
+        <v>322.17</v>
+      </c>
+      <c r="H23" s="4">
+        <v>21.870999999999999</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>2145.5</v>
+      </c>
+      <c r="O23" s="2"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="4">
+        <v>5</v>
+      </c>
+      <c r="E24" s="4">
+        <v>-152.77723373862199</v>
+      </c>
+      <c r="F24" s="4">
+        <v>315.55399999999997</v>
+      </c>
+      <c r="G24" s="4">
+        <v>322.221</v>
+      </c>
+      <c r="H24" s="4">
+        <v>21.922000000000001</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>2145.5</v>
+      </c>
+      <c r="O24" s="2"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="4">
         <v>7</v>
       </c>
-      <c r="E15">
-        <v>-136.90543815174399</v>
-      </c>
-      <c r="F15">
-        <v>287.81099999999998</v>
-      </c>
-      <c r="G15">
-        <v>303.81099999999998</v>
-      </c>
-      <c r="H15">
-        <v>7.2450000000000001</v>
-      </c>
-      <c r="I15">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="E16">
-        <v>-150.23106671924199</v>
-      </c>
-      <c r="F16">
-        <v>306.46199999999999</v>
-      </c>
-      <c r="G16">
-        <v>308.64400000000001</v>
-      </c>
-      <c r="H16">
-        <v>12.077999999999999</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1">
-        <v>19.567219999999999</v>
-      </c>
-      <c r="K16">
-        <v>2.8582540000000001</v>
-      </c>
-      <c r="L16">
-        <v>16.480170000000001</v>
-      </c>
-      <c r="M16">
-        <v>29.092649999999999</v>
-      </c>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17">
-        <v>4</v>
-      </c>
-      <c r="E17">
-        <v>-149.03518878884699</v>
-      </c>
-      <c r="F17">
-        <v>306.07</v>
-      </c>
-      <c r="G17">
-        <v>310.07</v>
-      </c>
-      <c r="H17">
-        <v>13.504</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18">
-        <v>4</v>
-      </c>
-      <c r="E18">
-        <v>-150.104504975819</v>
-      </c>
-      <c r="F18">
-        <v>308.209</v>
-      </c>
-      <c r="G18">
-        <v>312.209</v>
-      </c>
-      <c r="H18">
-        <v>15.643000000000001</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="N18" s="2"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19">
-        <v>5</v>
-      </c>
-      <c r="E19">
-        <v>-148.49804436090599</v>
-      </c>
-      <c r="F19">
-        <v>306.99599999999998</v>
-      </c>
-      <c r="G19">
-        <v>313.66300000000001</v>
-      </c>
-      <c r="H19">
-        <v>17.097000000000001</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20">
-        <v>5</v>
-      </c>
-      <c r="E20">
-        <v>-149.004249694321</v>
-      </c>
-      <c r="F20">
-        <v>308.00799999999998</v>
-      </c>
-      <c r="G20">
-        <v>314.67500000000001</v>
-      </c>
-      <c r="H20">
-        <v>18.109000000000002</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21">
-        <v>5</v>
-      </c>
-      <c r="E21">
-        <v>-149.605542539129</v>
-      </c>
-      <c r="F21">
-        <v>309.21100000000001</v>
-      </c>
-      <c r="G21">
-        <v>315.87799999999999</v>
-      </c>
-      <c r="H21">
-        <v>19.312000000000001</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="N21" s="2"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22">
-        <v>5</v>
-      </c>
-      <c r="E22">
-        <v>-149.70373964211299</v>
-      </c>
-      <c r="F22">
-        <v>309.40699999999998</v>
-      </c>
-      <c r="G22">
-        <v>316.07400000000001</v>
-      </c>
-      <c r="H22">
-        <v>19.507999999999999</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="N22" s="2"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23">
-        <v>5</v>
-      </c>
-      <c r="E23">
-        <v>-150.03742724949899</v>
-      </c>
-      <c r="F23">
-        <v>310.07499999999999</v>
-      </c>
-      <c r="G23">
-        <v>316.74200000000002</v>
-      </c>
-      <c r="H23">
-        <v>20.175999999999998</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="N23" s="2"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24">
-        <v>6</v>
-      </c>
-      <c r="E24">
-        <v>-147.132582952326</v>
-      </c>
-      <c r="F24">
-        <v>306.26499999999999</v>
-      </c>
-      <c r="G24">
-        <v>316.76499999999999</v>
-      </c>
-      <c r="H24">
-        <v>20.199000000000002</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="N24" s="2"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25">
-        <v>6</v>
-      </c>
-      <c r="E25">
-        <v>-148.39234526169699</v>
-      </c>
-      <c r="F25">
-        <v>308.78500000000003</v>
-      </c>
-      <c r="G25">
-        <v>319.28500000000003</v>
-      </c>
-      <c r="H25">
-        <v>22.719000000000101</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="N25" s="2"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E25" s="4">
+        <v>-147.257015391865</v>
+      </c>
+      <c r="F25" s="4">
+        <v>308.51400000000001</v>
+      </c>
+      <c r="G25" s="4">
+        <v>324.51400000000001</v>
+      </c>
+      <c r="H25" s="4">
+        <v>24.215</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>2145.5</v>
+      </c>
+      <c r="O25" s="2"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1266,24 +1926,43 @@
       <c r="I26">
         <v>0.58650000000000002</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26">
+        <v>2116.5</v>
+      </c>
+      <c r="K26" s="1">
         <v>28.744720000000001</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>5.766534</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>23.107099999999999</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>49.465910000000001</v>
       </c>
-      <c r="N26" s="2">
-        <f>(J26-J31)/J31</f>
+      <c r="O26" s="2">
+        <f>(K26-K31)/K31</f>
         <v>0.10080390679092906</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P26">
+        <f>K26*100/J26</f>
+        <v>1.3581252067091898</v>
+      </c>
+      <c r="Q26">
+        <f>L26*100/J26</f>
+        <v>0.27245613040396882</v>
+      </c>
+      <c r="R26">
+        <f>M26*100/J26</f>
+        <v>1.091759981100874</v>
+      </c>
+      <c r="S26">
+        <f>N26*100/J26</f>
+        <v>2.3371561540278765</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>11</v>
       </c>
@@ -1308,8 +1987,11 @@
       <c r="I27">
         <v>0.35449999999999998</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <v>2116.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>23</v>
       </c>
@@ -1334,8 +2016,11 @@
       <c r="I28">
         <v>5.8999999999999997E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <v>2116.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>14</v>
       </c>
@@ -1360,8 +2045,11 @@
       <c r="I29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <v>2116.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>8</v>
       </c>
@@ -1386,8 +2074,11 @@
       <c r="I30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <v>2116.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>13</v>
       </c>
@@ -1412,20 +2103,39 @@
       <c r="I31">
         <v>0</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31">
+        <v>2116.5</v>
+      </c>
+      <c r="K31" s="1">
         <v>26.112480000000001</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>2.7644669999999998</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>22.8947</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>34.795029999999997</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P31">
+        <f>K31*100/J31</f>
+        <v>1.2337576187101347</v>
+      </c>
+      <c r="Q31">
+        <f>L31*100/J31</f>
+        <v>0.13061502480510276</v>
+      </c>
+      <c r="R31">
+        <f>M31*100/J31</f>
+        <v>1.0817245452397828</v>
+      </c>
+      <c r="S31">
+        <f>N31*100/J31</f>
+        <v>1.6439891330025984</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>16</v>
       </c>
@@ -1450,8 +2160,11 @@
       <c r="I32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <v>2116.5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>19</v>
       </c>
@@ -1476,8 +2189,11 @@
       <c r="I33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <v>2116.5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>18</v>
       </c>
@@ -1501,6 +2217,9 @@
       </c>
       <c r="I34">
         <v>0</v>
+      </c>
+      <c r="J34">
+        <v>2116.5</v>
       </c>
     </row>
   </sheetData>

--- a/AIC_All Areas X combined.xlsx
+++ b/AIC_All Areas X combined.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Koustubh\Dropbox (Snow Leopard Trust)\CREEM\Analyses\snowleopards\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="960" yWindow="915" windowWidth="19395" windowHeight="7155"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -159,7 +164,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -706,6 +711,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -753,7 +761,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -788,7 +796,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1000,9 +1008,10 @@
   <dimension ref="A1:V45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="600" activePane="bottomLeft"/>
-      <selection activeCell="M1" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <pane xSplit="1350" ySplit="600" activePane="bottomRight"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1084,36 +1093,36 @@
         <v>2481.75</v>
       </c>
       <c r="L2" s="1">
-        <v>16.51014</v>
+        <v>14.2</v>
       </c>
       <c r="M2">
-        <v>1.963876</v>
+        <v>0.46</v>
       </c>
       <c r="N2">
-        <v>14.647857</v>
+        <v>14.01</v>
       </c>
       <c r="O2">
-        <v>23.725650000000002</v>
+        <v>16.88</v>
       </c>
       <c r="P2" s="2">
         <f>(L2-L6)/L6</f>
-        <v>0.15665744944833296</v>
+        <v>-0.10410094637223977</v>
       </c>
       <c r="Q2">
         <f>L2*100/K2</f>
-        <v>0.66526201269265639</v>
+        <v>0.5721768913065377</v>
       </c>
       <c r="R2">
         <f>M2*100/K2</f>
-        <v>7.913270877405057E-2</v>
+        <v>1.8535307746549812E-2</v>
       </c>
       <c r="S2">
         <f>N2*100/K2</f>
-        <v>0.59022290722272586</v>
+        <v>0.56452100332426713</v>
       </c>
       <c r="T2">
         <f>O2*100/K2</f>
-        <v>0.95600483529767299</v>
+        <v>0.6801652060038279</v>
       </c>
       <c r="V2">
         <v>17.600000000000001</v>
@@ -1142,33 +1151,33 @@
         <v>2481.75</v>
       </c>
       <c r="L6" s="1">
-        <v>14.274010000000001</v>
+        <v>15.85</v>
       </c>
       <c r="M6">
-        <v>0.54757540000000005</v>
+        <v>1.7</v>
       </c>
       <c r="N6">
-        <v>14.022821</v>
+        <v>14.39</v>
       </c>
       <c r="O6">
-        <v>17.28999</v>
+        <v>22.59</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6">
         <f>L6*100/K6</f>
-        <v>0.5751590611463685</v>
+        <v>0.63866223431046643</v>
       </c>
       <c r="R6">
         <f>M6*100/K6</f>
-        <v>2.2064083811826334E-2</v>
+        <v>6.8500050367684098E-2</v>
       </c>
       <c r="S6">
         <f>N6*100/K6</f>
-        <v>0.56503761458648138</v>
+        <v>0.57983277928880828</v>
       </c>
       <c r="T6">
         <f>O6*100/K6</f>
-        <v>0.69668540344514962</v>
+        <v>0.91024478694469624</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -1229,7 +1238,7 @@
         <v>2145.5</v>
       </c>
       <c r="L14" s="1">
-        <v>23.75</v>
+        <v>20</v>
       </c>
       <c r="M14">
         <v>6.34</v>
@@ -1242,11 +1251,11 @@
       </c>
       <c r="P14" s="2">
         <f>(L14-L16)/L16</f>
-        <v>0.28239740820734344</v>
+        <v>8.0497028633171167E-2</v>
       </c>
       <c r="Q14">
         <f>L14*100/K14</f>
-        <v>1.1069680727103239</v>
+        <v>0.93218364017711486</v>
       </c>
       <c r="R14">
         <f>M14*100/K14</f>
@@ -1288,7 +1297,7 @@
         <v>2145.5</v>
       </c>
       <c r="L16" s="1">
-        <v>18.52</v>
+        <v>18.510000000000002</v>
       </c>
       <c r="M16">
         <v>2.48</v>
@@ -1302,7 +1311,7 @@
       <c r="P16" s="2"/>
       <c r="Q16">
         <f>L16*100/K16</f>
-        <v>0.86320205080400836</v>
+        <v>0.86273595898391997</v>
       </c>
       <c r="R16">
         <f>M16*100/K16</f>
@@ -1451,36 +1460,36 @@
         <v>2116.5</v>
       </c>
       <c r="L26" s="1">
-        <v>28.744720000000001</v>
+        <v>14.584</v>
       </c>
       <c r="M26">
-        <v>5.766534</v>
+        <v>0.83</v>
       </c>
       <c r="N26">
-        <v>23.107099999999999</v>
+        <v>14.07</v>
       </c>
       <c r="O26">
-        <v>49.465910000000001</v>
+        <v>18.59</v>
       </c>
       <c r="P26" s="2">
         <f>(L26-L31)/L31</f>
-        <v>0.10080390679092906</v>
+        <v>-7.0490758444869336E-2</v>
       </c>
       <c r="Q26">
         <f>L26*100/K26</f>
-        <v>1.3581252067091898</v>
+        <v>0.68906213087644685</v>
       </c>
       <c r="R26">
         <f>M26*100/K26</f>
-        <v>0.27245613040396882</v>
+        <v>3.9215686274509803E-2</v>
       </c>
       <c r="S26">
         <f>N26*100/K26</f>
-        <v>1.091759981100874</v>
+        <v>0.66477675407512404</v>
       </c>
       <c r="T26">
         <f>O26*100/K26</f>
-        <v>2.3371561540278765</v>
+        <v>0.87833687691944251</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
@@ -1508,32 +1517,32 @@
         <v>2116.5</v>
       </c>
       <c r="L31" s="1">
-        <v>26.112480000000001</v>
+        <v>15.69</v>
       </c>
       <c r="M31">
-        <v>2.7644669999999998</v>
+        <v>1.62</v>
       </c>
       <c r="N31">
-        <v>22.8947</v>
+        <v>14.34</v>
       </c>
       <c r="O31">
-        <v>34.795029999999997</v>
+        <v>22.22</v>
       </c>
       <c r="Q31">
         <f>L31*100/K31</f>
-        <v>1.2337576187101347</v>
+        <v>0.74131821403260101</v>
       </c>
       <c r="R31">
         <f>M31*100/K31</f>
-        <v>0.13061502480510276</v>
+        <v>7.6541459957476965E-2</v>
       </c>
       <c r="S31">
         <f>N31*100/K31</f>
-        <v>1.0817245452397828</v>
+        <v>0.67753366406803683</v>
       </c>
       <c r="T31">
         <f>O31*100/K31</f>
-        <v>1.6439891330025984</v>
+        <v>1.0498464446019371</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
